--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H2">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I2">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J2">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.08493734603426</v>
+        <v>1.888921</v>
       </c>
       <c r="N2">
-        <v>1.08493734603426</v>
+        <v>5.666763</v>
       </c>
       <c r="O2">
-        <v>0.4808910976560867</v>
+        <v>0.4551532417350329</v>
       </c>
       <c r="P2">
-        <v>0.4808910976560867</v>
+        <v>0.4551532417350328</v>
       </c>
       <c r="Q2">
-        <v>34.09934800946993</v>
+        <v>222.8245905832743</v>
       </c>
       <c r="R2">
-        <v>34.09934800946993</v>
+        <v>2005.421315249469</v>
       </c>
       <c r="S2">
-        <v>0.0427754421586965</v>
+        <v>0.121147688402184</v>
       </c>
       <c r="T2">
-        <v>0.0427754421586965</v>
+        <v>0.121147688402184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.4297854471618</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H3">
-        <v>31.4297854471618</v>
+        <v>353.891863</v>
       </c>
       <c r="I3">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J3">
-        <v>0.08895037227178557</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17116045099787</v>
+        <v>1.087098333333333</v>
       </c>
       <c r="N3">
-        <v>1.17116045099787</v>
+        <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.5191089023439134</v>
+        <v>0.2619465454094788</v>
       </c>
       <c r="P3">
-        <v>0.5191089023439134</v>
+        <v>0.2619465454094787</v>
       </c>
       <c r="Q3">
-        <v>36.80932169906431</v>
+        <v>128.2384181491761</v>
       </c>
       <c r="R3">
-        <v>36.80932169906431</v>
+        <v>1154.145763342585</v>
       </c>
       <c r="S3">
-        <v>0.04617493011308908</v>
+        <v>0.06972205303938082</v>
       </c>
       <c r="T3">
-        <v>0.04617493011308908</v>
+        <v>0.06972205303938081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>279.608741037999</v>
+        <v>117.9639543333333</v>
       </c>
       <c r="H4">
-        <v>279.608741037999</v>
+        <v>353.891863</v>
       </c>
       <c r="I4">
-        <v>0.7913290291970875</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="J4">
-        <v>0.7913290291970875</v>
+        <v>0.2661690114309019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.08493734603426</v>
+        <v>1.174057666666667</v>
       </c>
       <c r="N4">
-        <v>1.08493734603426</v>
+        <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.4808910976560867</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="P4">
-        <v>0.4808910976560867</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="Q4">
-        <v>303.3579654297473</v>
+        <v>138.4964849753665</v>
       </c>
       <c r="R4">
-        <v>303.3579654297473</v>
+        <v>1246.468364778299</v>
       </c>
       <c r="S4">
-        <v>0.3805430854577129</v>
+        <v>0.07529926998933707</v>
       </c>
       <c r="T4">
-        <v>0.3805430854577129</v>
+        <v>0.07529926998933707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>279.608741037999</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H5">
-        <v>279.608741037999</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J5">
-        <v>0.7913290291970875</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.17116045099787</v>
+        <v>1.888921</v>
       </c>
       <c r="N5">
-        <v>1.17116045099787</v>
+        <v>5.666763</v>
       </c>
       <c r="O5">
-        <v>0.5191089023439134</v>
+        <v>0.4551532417350329</v>
       </c>
       <c r="P5">
-        <v>0.5191089023439134</v>
+        <v>0.4551532417350328</v>
       </c>
       <c r="Q5">
-        <v>327.4666992570095</v>
+        <v>533.8872142246473</v>
       </c>
       <c r="R5">
-        <v>327.4666992570095</v>
+        <v>4804.984928021825</v>
       </c>
       <c r="S5">
-        <v>0.4107859437393747</v>
+        <v>0.2902695869494963</v>
       </c>
       <c r="T5">
-        <v>0.4107859437393747</v>
+        <v>0.2902695869494962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.302158263509</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H6">
-        <v>42.302158263509</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.119720598531127</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J6">
-        <v>0.119720598531127</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.08493734603426</v>
+        <v>1.087098333333333</v>
       </c>
       <c r="N6">
-        <v>1.08493734603426</v>
+        <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.4808910976560867</v>
+        <v>0.2619465454094788</v>
       </c>
       <c r="P6">
-        <v>0.4808910976560867</v>
+        <v>0.2619465454094787</v>
       </c>
       <c r="Q6">
-        <v>45.89519131793269</v>
+        <v>307.2589593591211</v>
       </c>
       <c r="R6">
-        <v>45.89519131793269</v>
+        <v>2765.330634232089</v>
       </c>
       <c r="S6">
-        <v>0.05757257003967734</v>
+        <v>0.1670538811258663</v>
       </c>
       <c r="T6">
-        <v>0.05757257003967734</v>
+        <v>0.1670538811258662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.302158263509</v>
+        <v>282.6413673333333</v>
       </c>
       <c r="H7">
-        <v>42.302158263509</v>
+        <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.119720598531127</v>
+        <v>0.6377403483780447</v>
       </c>
       <c r="J7">
-        <v>0.119720598531127</v>
+        <v>0.6377403483780446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.17116045099787</v>
+        <v>1.174057666666667</v>
       </c>
       <c r="N7">
-        <v>1.17116045099787</v>
+        <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.5191089023439134</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="P7">
-        <v>0.5191089023439134</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="Q7">
-        <v>49.54261475007447</v>
+        <v>331.8372642348496</v>
       </c>
       <c r="R7">
-        <v>49.54261475007447</v>
+        <v>2986.535378113646</v>
       </c>
       <c r="S7">
-        <v>0.06214802849144966</v>
+        <v>0.1804168803026822</v>
       </c>
       <c r="T7">
-        <v>0.06214802849144966</v>
+        <v>0.1804168803026821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>42.586595</v>
+      </c>
+      <c r="H8">
+        <v>127.759785</v>
+      </c>
+      <c r="I8">
+        <v>0.09609064019105341</v>
+      </c>
+      <c r="J8">
+        <v>0.09609064019105343</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.888921</v>
+      </c>
+      <c r="N8">
+        <v>5.666763</v>
+      </c>
+      <c r="O8">
+        <v>0.4551532417350329</v>
+      </c>
+      <c r="P8">
+        <v>0.4551532417350328</v>
+      </c>
+      <c r="Q8">
+        <v>80.44271361399498</v>
+      </c>
+      <c r="R8">
+        <v>723.9844225259549</v>
+      </c>
+      <c r="S8">
+        <v>0.0437359663833526</v>
+      </c>
+      <c r="T8">
+        <v>0.0437359663833526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>42.586595</v>
+      </c>
+      <c r="H9">
+        <v>127.759785</v>
+      </c>
+      <c r="I9">
+        <v>0.09609064019105341</v>
+      </c>
+      <c r="J9">
+        <v>0.09609064019105343</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.087098333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.261295</v>
+      </c>
+      <c r="O9">
+        <v>0.2619465454094788</v>
+      </c>
+      <c r="P9">
+        <v>0.2619465454094787</v>
+      </c>
+      <c r="Q9">
+        <v>46.29581644684166</v>
+      </c>
+      <c r="R9">
+        <v>416.6623480215749</v>
+      </c>
+      <c r="S9">
+        <v>0.02517061124423166</v>
+      </c>
+      <c r="T9">
+        <v>0.02517061124423165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>42.586595</v>
+      </c>
+      <c r="H10">
+        <v>127.759785</v>
+      </c>
+      <c r="I10">
+        <v>0.09609064019105341</v>
+      </c>
+      <c r="J10">
+        <v>0.09609064019105343</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.174057666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.522173</v>
+      </c>
+      <c r="O10">
+        <v>0.2829002128554884</v>
+      </c>
+      <c r="P10">
+        <v>0.2829002128554884</v>
+      </c>
+      <c r="Q10">
+        <v>49.99911835697833</v>
+      </c>
+      <c r="R10">
+        <v>449.992065212805</v>
+      </c>
+      <c r="S10">
+        <v>0.02718406256346916</v>
+      </c>
+      <c r="T10">
+        <v>0.02718406256346916</v>
       </c>
     </row>
   </sheetData>
